--- a/CA_data/LC/Epct1/2021-22/04+BUTTE.xlsx
+++ b/CA_data/LC/Epct1/2021-22/04+BUTTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="140">
   <si>
     <t>Butte CountyLanguage Group Data - Countywidefor  2021 - 22</t>
   </si>
@@ -109,12 +109,12 @@
     <t>Korean</t>
   </si>
   <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
     <t>Dutch</t>
   </si>
   <si>
-    <t>Gujarati</t>
-  </si>
-  <si>
     <t>Rumanian</t>
   </si>
   <si>
@@ -127,85 +127,103 @@
     <t>Amharic</t>
   </si>
   <si>
+    <t>Ilocano</t>
+  </si>
+  <si>
     <t>Nepali</t>
   </si>
   <si>
-    <t>Ilocano</t>
-  </si>
-  <si>
     <t>Serbo-Croatian (Bosnian, Croatian, Serbian)</t>
   </si>
   <si>
+    <t>Tamil</t>
+  </si>
+  <si>
     <t>Telugu</t>
   </si>
   <si>
-    <t>Tamil</t>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>Chaldean</t>
   </si>
   <si>
     <t>Greek</t>
   </si>
   <si>
-    <t>Bengali</t>
-  </si>
-  <si>
-    <t>Chaldean</t>
-  </si>
-  <si>
     <t>Toishanese</t>
   </si>
   <si>
-    <t>Ukrainian</t>
-  </si>
-  <si>
     <t>Swedish</t>
   </si>
   <si>
     <t>Tigrinya</t>
   </si>
   <si>
+    <t>Albanian</t>
+  </si>
+  <si>
     <t>Polish</t>
   </si>
   <si>
+    <t>Chaozhou (Chiuchow)</t>
+  </si>
+  <si>
+    <t>Khmer (Cambodian)</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
     <t>Samoan</t>
   </si>
   <si>
-    <t>Chaozhou (Chiuchow)</t>
-  </si>
-  <si>
-    <t>Albanian</t>
-  </si>
-  <si>
-    <t>Burmese</t>
-  </si>
-  <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
-    <t>Khmer (Cambodian)</t>
+    <t>Assyrian</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Chamorro (Guamanian)</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Cebuano (Visayan)</t>
+  </si>
+  <si>
+    <t>Marshallese</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>Kurdish (Kurdi, Kurmanji)</t>
   </si>
   <si>
     <t>Khmu</t>
   </si>
   <si>
-    <t>Somali</t>
-  </si>
-  <si>
-    <t>Chamorro (Guamanian)</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>Turkish</t>
-  </si>
-  <si>
-    <t>Assyrian</t>
-  </si>
-  <si>
-    <t>Cebuano (Visayan)</t>
-  </si>
-  <si>
-    <t>Marshallese</t>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>Hawaiian</t>
   </si>
   <si>
     <t>Butte County Total</t>
@@ -773,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,19 +825,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -827,16 +845,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -844,16 +862,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -861,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -878,16 +896,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -895,16 +913,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -912,16 +930,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -929,16 +947,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -946,16 +964,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -963,16 +981,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -980,16 +998,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -997,16 +1015,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1014,16 +1032,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1031,16 +1049,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1048,16 +1066,16 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1065,16 +1083,16 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1082,16 +1100,16 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1099,16 +1117,16 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1116,16 +1134,16 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1133,16 +1151,16 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1150,16 +1168,16 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1167,16 +1185,16 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1184,16 +1202,16 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1201,44 +1219,44 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>32</v>
       </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1246,16 +1264,16 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,16 +1281,16 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1280,13 +1298,13 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1294,44 +1312,44 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>38</v>
       </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1339,61 +1357,61 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>40</v>
       </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="C37" t="s">
-        <v>82</v>
+      <c r="D37" t="s">
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1401,13 +1419,13 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1415,13 +1433,13 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1429,27 +1447,27 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="D41" t="s">
-        <v>82</v>
+      <c r="C41" t="s">
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1457,13 +1475,13 @@
         <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1471,7 +1489,7 @@
         <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1479,7 +1497,7 @@
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1487,7 +1505,7 @@
         <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1495,7 +1513,7 @@
         <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1503,7 +1521,7 @@
         <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1511,7 +1529,7 @@
         <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1519,7 +1537,7 @@
         <v>54</v>
       </c>
       <c r="F49" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1527,7 +1545,7 @@
         <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1535,7 +1553,7 @@
         <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1543,28 +1561,28 @@
         <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1572,7 +1590,7 @@
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1580,7 +1598,7 @@
         <v>61</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1588,7 +1606,7 @@
         <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1596,47 +1614,95 @@
         <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" t="s">
-        <v>113</v>
-      </c>
       <c r="F60" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
+      <c r="F61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="C61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" t="s">
-        <v>133</v>
+      <c r="F64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
